--- a/natmiOut/OldD2/LR-pairs_lrc2p/Gnas-Vipr1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Gnas-Vipr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>198.772404239099</v>
+        <v>200.111107</v>
       </c>
       <c r="H2">
-        <v>198.772404239099</v>
+        <v>400.222214</v>
       </c>
       <c r="I2">
-        <v>0.2375622505048115</v>
+        <v>0.225447015437588</v>
       </c>
       <c r="J2">
-        <v>0.2375622505048115</v>
+        <v>0.1817575604364342</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>2.39127859357996</v>
+        <v>0.032709</v>
       </c>
       <c r="N2">
-        <v>2.39127859357996</v>
+        <v>0.09812700000000001</v>
       </c>
       <c r="O2">
-        <v>0.816286647869029</v>
+        <v>0.006659324197390494</v>
       </c>
       <c r="P2">
-        <v>0.816286647869029</v>
+        <v>0.006914300080637592</v>
       </c>
       <c r="Q2">
-        <v>475.3201952513799</v>
+        <v>6.545434198863001</v>
       </c>
       <c r="R2">
-        <v>475.3201952513799</v>
+        <v>39.272605193178</v>
       </c>
       <c r="S2">
-        <v>0.1939188931247952</v>
+        <v>0.001501324765132998</v>
       </c>
       <c r="T2">
-        <v>0.1939188931247952</v>
+        <v>0.001256726314782129</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>198.772404239099</v>
+        <v>200.111107</v>
       </c>
       <c r="H3">
-        <v>198.772404239099</v>
+        <v>400.222214</v>
       </c>
       <c r="I3">
-        <v>0.2375622505048115</v>
+        <v>0.225447015437588</v>
       </c>
       <c r="J3">
-        <v>0.2375622505048115</v>
+        <v>0.1817575604364342</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.538180806279823</v>
+        <v>1.571286666666667</v>
       </c>
       <c r="N3">
-        <v>0.538180806279823</v>
+        <v>4.71386</v>
       </c>
       <c r="O3">
-        <v>0.1837133521309709</v>
+        <v>0.3199030028545778</v>
       </c>
       <c r="P3">
-        <v>0.1837133521309709</v>
+        <v>0.3321516257310865</v>
       </c>
       <c r="Q3">
-        <v>106.9754927795772</v>
+        <v>314.4319142810067</v>
       </c>
       <c r="R3">
-        <v>106.9754927795772</v>
+        <v>1886.59148568604</v>
       </c>
       <c r="S3">
-        <v>0.04364335738001636</v>
+        <v>0.07212117722308675</v>
       </c>
       <c r="T3">
-        <v>0.04364335738001636</v>
+        <v>0.06037106918787782</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -661,57 +661,57 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>110.683329333029</v>
+        <v>200.111107</v>
       </c>
       <c r="H4">
-        <v>110.683329333029</v>
+        <v>400.222214</v>
       </c>
       <c r="I4">
-        <v>0.1322828533989602</v>
+        <v>0.225447015437588</v>
       </c>
       <c r="J4">
-        <v>0.1322828533989602</v>
+        <v>0.1817575604364342</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.39127859357996</v>
+        <v>2.432594333333333</v>
       </c>
       <c r="N4">
-        <v>2.39127859357996</v>
+        <v>7.297783</v>
       </c>
       <c r="O4">
-        <v>0.816286647869029</v>
+        <v>0.4952592346571789</v>
       </c>
       <c r="P4">
-        <v>0.816286647869029</v>
+        <v>0.5142219937975853</v>
       </c>
       <c r="Q4">
-        <v>264.6746761002331</v>
+        <v>486.7891449252604</v>
       </c>
       <c r="R4">
-        <v>264.6746761002331</v>
+        <v>2920.734869551562</v>
       </c>
       <c r="S4">
-        <v>0.1079807269715874</v>
+        <v>0.111654716321365</v>
       </c>
       <c r="T4">
-        <v>0.1079807269715874</v>
+        <v>0.0934637351154083</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>110.683329333029</v>
+        <v>200.111107</v>
       </c>
       <c r="H5">
-        <v>110.683329333029</v>
+        <v>400.222214</v>
       </c>
       <c r="I5">
-        <v>0.1322828533989602</v>
+        <v>0.225447015437588</v>
       </c>
       <c r="J5">
-        <v>0.1322828533989602</v>
+        <v>0.1817575604364342</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.538180806279823</v>
+        <v>0.3317826666666666</v>
       </c>
       <c r="N5">
-        <v>0.538180806279823</v>
+        <v>0.9953479999999999</v>
       </c>
       <c r="O5">
-        <v>0.1837133521309709</v>
+        <v>0.06754863616766264</v>
       </c>
       <c r="P5">
-        <v>0.1837133521309709</v>
+        <v>0.07013497566075051</v>
       </c>
       <c r="Q5">
-        <v>59.56764342218473</v>
+        <v>66.39339671007866</v>
       </c>
       <c r="R5">
-        <v>59.56764342218473</v>
+        <v>398.360380260472</v>
       </c>
       <c r="S5">
-        <v>0.02430212642737278</v>
+        <v>0.01522863842087905</v>
       </c>
       <c r="T5">
-        <v>0.02430212642737278</v>
+        <v>0.0127475620773667</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>76.2998967599214</v>
+        <v>200.111107</v>
       </c>
       <c r="H6">
-        <v>76.2998967599214</v>
+        <v>400.222214</v>
       </c>
       <c r="I6">
-        <v>0.09118959574372489</v>
+        <v>0.225447015437588</v>
       </c>
       <c r="J6">
-        <v>0.09118959574372489</v>
+        <v>0.1817575604364342</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.39127859357996</v>
+        <v>0.5433870000000001</v>
       </c>
       <c r="N6">
-        <v>2.39127859357996</v>
+        <v>1.086774</v>
       </c>
       <c r="O6">
-        <v>0.816286647869029</v>
+        <v>0.1106298021231902</v>
       </c>
       <c r="P6">
-        <v>0.816286647869029</v>
+        <v>0.07657710472994017</v>
       </c>
       <c r="Q6">
-        <v>182.454309814361</v>
+        <v>108.737774099409</v>
       </c>
       <c r="R6">
-        <v>182.454309814361</v>
+        <v>434.951096397636</v>
       </c>
       <c r="S6">
-        <v>0.07443684943017706</v>
+        <v>0.02494115870712417</v>
       </c>
       <c r="T6">
-        <v>0.07443684943017706</v>
+        <v>0.01391846774099925</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>76.2998967599214</v>
+        <v>117.551811</v>
       </c>
       <c r="H7">
-        <v>76.2998967599214</v>
+        <v>352.655433</v>
       </c>
       <c r="I7">
-        <v>0.09118959574372489</v>
+        <v>0.1324349524948329</v>
       </c>
       <c r="J7">
-        <v>0.09118959574372489</v>
+        <v>0.1601555059528365</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.538180806279823</v>
+        <v>0.032709</v>
       </c>
       <c r="N7">
-        <v>0.538180806279823</v>
+        <v>0.09812700000000001</v>
       </c>
       <c r="O7">
-        <v>0.1837133521309709</v>
+        <v>0.006659324197390494</v>
       </c>
       <c r="P7">
-        <v>0.1837133521309709</v>
+        <v>0.006914300080637592</v>
       </c>
       <c r="Q7">
-        <v>41.06313995732175</v>
+        <v>3.845002185999</v>
       </c>
       <c r="R7">
-        <v>41.06313995732175</v>
+        <v>34.605019673991</v>
       </c>
       <c r="S7">
-        <v>0.01675274631354782</v>
+        <v>0.0008819272837291012</v>
       </c>
       <c r="T7">
-        <v>0.01675274631354782</v>
+        <v>0.001107363227724251</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,184 +906,184 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>101.850680981866</v>
+        <v>117.551811</v>
       </c>
       <c r="H8">
-        <v>101.850680981866</v>
+        <v>352.655433</v>
       </c>
       <c r="I8">
-        <v>0.1217265398691611</v>
+        <v>0.1324349524948329</v>
       </c>
       <c r="J8">
-        <v>0.1217265398691611</v>
+        <v>0.1601555059528365</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>2.39127859357996</v>
+        <v>1.571286666666667</v>
       </c>
       <c r="N8">
-        <v>2.39127859357996</v>
+        <v>4.71386</v>
       </c>
       <c r="O8">
-        <v>0.816286647869029</v>
+        <v>0.3199030028545778</v>
       </c>
       <c r="P8">
-        <v>0.816286647869029</v>
+        <v>0.3321516257310865</v>
       </c>
       <c r="Q8">
-        <v>243.5533531734777</v>
+        <v>184.70759326682</v>
       </c>
       <c r="R8">
-        <v>243.5533531734777</v>
+        <v>1662.36833940138</v>
       </c>
       <c r="S8">
-        <v>0.09936374918649325</v>
+        <v>0.0423663389860004</v>
       </c>
       <c r="T8">
-        <v>0.09936374918649325</v>
+        <v>0.05319591167201933</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>101.850680981866</v>
+        <v>117.551811</v>
       </c>
       <c r="H9">
-        <v>101.850680981866</v>
+        <v>352.655433</v>
       </c>
       <c r="I9">
-        <v>0.1217265398691611</v>
+        <v>0.1324349524948329</v>
       </c>
       <c r="J9">
-        <v>0.1217265398691611</v>
+        <v>0.1601555059528365</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.538180806279823</v>
+        <v>2.432594333333333</v>
       </c>
       <c r="N9">
-        <v>0.538180806279823</v>
+        <v>7.297783</v>
       </c>
       <c r="O9">
-        <v>0.1837133521309709</v>
+        <v>0.4952592346571789</v>
       </c>
       <c r="P9">
-        <v>0.1837133521309709</v>
+        <v>0.5142219937975853</v>
       </c>
       <c r="Q9">
-        <v>54.81408161096968</v>
+        <v>285.955869311671</v>
       </c>
       <c r="R9">
-        <v>54.81408161096968</v>
+        <v>2573.602823805039</v>
       </c>
       <c r="S9">
-        <v>0.02236279068266787</v>
+        <v>0.06558963321445077</v>
       </c>
       <c r="T9">
-        <v>0.02236279068266787</v>
+        <v>0.0823554835887286</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>117.98524376164</v>
+        <v>117.551811</v>
       </c>
       <c r="H10">
-        <v>117.98524376164</v>
+        <v>352.655433</v>
       </c>
       <c r="I10">
-        <v>0.141009714812619</v>
+        <v>0.1324349524948329</v>
       </c>
       <c r="J10">
-        <v>0.141009714812619</v>
+        <v>0.1601555059528365</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>2.39127859357996</v>
+        <v>0.3317826666666666</v>
       </c>
       <c r="N10">
-        <v>2.39127859357996</v>
+        <v>0.9953479999999999</v>
       </c>
       <c r="O10">
-        <v>0.816286647869029</v>
+        <v>0.06754863616766264</v>
       </c>
       <c r="P10">
-        <v>0.816286647869029</v>
+        <v>0.07013497566075051</v>
       </c>
       <c r="Q10">
-        <v>282.1355877655233</v>
+        <v>39.00165332507599</v>
       </c>
       <c r="R10">
-        <v>282.1355877655233</v>
+        <v>351.014879925684</v>
       </c>
       <c r="S10">
-        <v>0.1151043474213606</v>
+        <v>0.008945800421955153</v>
       </c>
       <c r="T10">
-        <v>0.1151043474213606</v>
+        <v>0.01123250251193737</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1095,57 +1095,57 @@
         <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>117.98524376164</v>
+        <v>117.551811</v>
       </c>
       <c r="H11">
-        <v>117.98524376164</v>
+        <v>352.655433</v>
       </c>
       <c r="I11">
-        <v>0.141009714812619</v>
+        <v>0.1324349524948329</v>
       </c>
       <c r="J11">
-        <v>0.141009714812619</v>
+        <v>0.1601555059528365</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.538180806279823</v>
+        <v>0.5433870000000001</v>
       </c>
       <c r="N11">
-        <v>0.538180806279823</v>
+        <v>1.086774</v>
       </c>
       <c r="O11">
-        <v>0.1837133521309709</v>
+        <v>0.1106298021231902</v>
       </c>
       <c r="P11">
-        <v>0.1837133521309709</v>
+        <v>0.07657710472994017</v>
       </c>
       <c r="Q11">
-        <v>63.49739361676087</v>
+        <v>63.87612592385701</v>
       </c>
       <c r="R11">
-        <v>63.49739361676087</v>
+        <v>383.256755543142</v>
       </c>
       <c r="S11">
-        <v>0.02590536739125847</v>
+        <v>0.01465125258869746</v>
       </c>
       <c r="T11">
-        <v>0.02590536739125847</v>
+        <v>0.01226424495242691</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,117 +1154,1233 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>231.125574084126</v>
+        <v>82.58969233333333</v>
       </c>
       <c r="H12">
-        <v>231.125574084126</v>
+        <v>247.769077</v>
       </c>
       <c r="I12">
-        <v>0.2762290456707231</v>
+        <v>0.09304630773172745</v>
       </c>
       <c r="J12">
-        <v>0.2762290456707231</v>
+        <v>0.1125222474210465</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>2.39127859357996</v>
+        <v>0.032709</v>
       </c>
       <c r="N12">
-        <v>2.39127859357996</v>
+        <v>0.09812700000000001</v>
       </c>
       <c r="O12">
-        <v>0.816286647869029</v>
+        <v>0.006659324197390494</v>
       </c>
       <c r="P12">
-        <v>0.816286647869029</v>
+        <v>0.006914300080637592</v>
       </c>
       <c r="Q12">
-        <v>552.6856377362496</v>
+        <v>2.701426246531</v>
       </c>
       <c r="R12">
-        <v>552.6856377362496</v>
+        <v>24.312836218779</v>
       </c>
       <c r="S12">
-        <v>0.2254820817346155</v>
+        <v>0.0006196255285557348</v>
       </c>
       <c r="T12">
-        <v>0.2254820817346155</v>
+        <v>0.0007780125844168649</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>82.58969233333333</v>
+      </c>
+      <c r="H13">
+        <v>247.769077</v>
+      </c>
+      <c r="I13">
+        <v>0.09304630773172745</v>
+      </c>
+      <c r="J13">
+        <v>0.1125222474210465</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>1.571286666666667</v>
+      </c>
+      <c r="N13">
+        <v>4.71386</v>
+      </c>
+      <c r="O13">
+        <v>0.3199030028545778</v>
+      </c>
+      <c r="P13">
+        <v>0.3321516257310865</v>
+      </c>
+      <c r="Q13">
+        <v>129.7720823674689</v>
+      </c>
+      <c r="R13">
+        <v>1167.94874130722</v>
+      </c>
+      <c r="S13">
+        <v>0.02976579324791073</v>
+      </c>
+      <c r="T13">
+        <v>0.03737444741181615</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>82.58969233333333</v>
+      </c>
+      <c r="H14">
+        <v>247.769077</v>
+      </c>
+      <c r="I14">
+        <v>0.09304630773172745</v>
+      </c>
+      <c r="J14">
+        <v>0.1125222474210465</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.432594333333333</v>
+      </c>
+      <c r="N14">
+        <v>7.297783</v>
+      </c>
+      <c r="O14">
+        <v>0.4952592346571789</v>
+      </c>
+      <c r="P14">
+        <v>0.5142219937975853</v>
+      </c>
+      <c r="Q14">
+        <v>200.9072175618101</v>
+      </c>
+      <c r="R14">
+        <v>1808.164958056291</v>
+      </c>
+      <c r="S14">
+        <v>0.04608204315489168</v>
+      </c>
+      <c r="T14">
+        <v>0.05786141441543573</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>82.58969233333333</v>
+      </c>
+      <c r="H15">
+        <v>247.769077</v>
+      </c>
+      <c r="I15">
+        <v>0.09304630773172745</v>
+      </c>
+      <c r="J15">
+        <v>0.1125222474210465</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.3317826666666666</v>
+      </c>
+      <c r="N15">
+        <v>0.9953479999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.06754863616766264</v>
+      </c>
+      <c r="P15">
+        <v>0.07013497566075051</v>
+      </c>
+      <c r="Q15">
+        <v>27.40182836153289</v>
+      </c>
+      <c r="R15">
+        <v>246.6164552537959</v>
+      </c>
+      <c r="S15">
+        <v>0.006285151187714833</v>
+      </c>
+      <c r="T15">
+        <v>0.007891745084168043</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>82.58969233333333</v>
+      </c>
+      <c r="H16">
+        <v>247.769077</v>
+      </c>
+      <c r="I16">
+        <v>0.09304630773172745</v>
+      </c>
+      <c r="J16">
+        <v>0.1125222474210465</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.5433870000000001</v>
+      </c>
+      <c r="N16">
+        <v>1.086774</v>
+      </c>
+      <c r="O16">
+        <v>0.1106298021231902</v>
+      </c>
+      <c r="P16">
+        <v>0.07657710472994017</v>
+      </c>
+      <c r="Q16">
+        <v>44.878165147933</v>
+      </c>
+      <c r="R16">
+        <v>269.268990887598</v>
+      </c>
+      <c r="S16">
+        <v>0.01029369461265447</v>
+      </c>
+      <c r="T16">
+        <v>0.008616627925209718</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>104.1027373333333</v>
+      </c>
+      <c r="H17">
+        <v>312.308212</v>
+      </c>
+      <c r="I17">
+        <v>0.1172831022851878</v>
+      </c>
+      <c r="J17">
+        <v>0.1418321540677518</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.032709</v>
+      </c>
+      <c r="N17">
+        <v>0.09812700000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.006659324197390494</v>
+      </c>
+      <c r="P17">
+        <v>0.006914300080637592</v>
+      </c>
+      <c r="Q17">
+        <v>3.405096435436</v>
+      </c>
+      <c r="R17">
+        <v>30.645867918924</v>
+      </c>
+      <c r="S17">
+        <v>0.0007810262009927757</v>
+      </c>
+      <c r="T17">
+        <v>0.0009806700743076593</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>104.1027373333333</v>
+      </c>
+      <c r="H18">
+        <v>312.308212</v>
+      </c>
+      <c r="I18">
+        <v>0.1172831022851878</v>
+      </c>
+      <c r="J18">
+        <v>0.1418321540677518</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>1.571286666666667</v>
+      </c>
+      <c r="N18">
+        <v>4.71386</v>
+      </c>
+      <c r="O18">
+        <v>0.3199030028545778</v>
+      </c>
+      <c r="P18">
+        <v>0.3321516257310865</v>
+      </c>
+      <c r="Q18">
+        <v>163.5752431353689</v>
+      </c>
+      <c r="R18">
+        <v>1472.17718821832</v>
+      </c>
+      <c r="S18">
+        <v>0.03751921660513218</v>
+      </c>
+      <c r="T18">
+        <v>0.04710978055454568</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>104.1027373333333</v>
+      </c>
+      <c r="H19">
+        <v>312.308212</v>
+      </c>
+      <c r="I19">
+        <v>0.1172831022851878</v>
+      </c>
+      <c r="J19">
+        <v>0.1418321540677518</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>2.432594333333333</v>
+      </c>
+      <c r="N19">
+        <v>7.297783</v>
+      </c>
+      <c r="O19">
+        <v>0.4952592346571789</v>
+      </c>
+      <c r="P19">
+        <v>0.5142219937975853</v>
+      </c>
+      <c r="Q19">
+        <v>253.2397289215551</v>
+      </c>
+      <c r="R19">
+        <v>2279.157560293996</v>
+      </c>
+      <c r="S19">
+        <v>0.05808553947598175</v>
+      </c>
+      <c r="T19">
+        <v>0.07293321304932561</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>104.1027373333333</v>
+      </c>
+      <c r="H20">
+        <v>312.308212</v>
+      </c>
+      <c r="I20">
+        <v>0.1172831022851878</v>
+      </c>
+      <c r="J20">
+        <v>0.1418321540677518</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.3317826666666666</v>
+      </c>
+      <c r="N20">
+        <v>0.9953479999999999</v>
+      </c>
+      <c r="O20">
+        <v>0.06754863616766264</v>
+      </c>
+      <c r="P20">
+        <v>0.07013497566075051</v>
+      </c>
+      <c r="Q20">
+        <v>34.53948379975289</v>
+      </c>
+      <c r="R20">
+        <v>310.855354197776</v>
+      </c>
+      <c r="S20">
+        <v>0.007922313604876916</v>
+      </c>
+      <c r="T20">
+        <v>0.009947394673453586</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>231.125574084126</v>
-      </c>
-      <c r="H13">
-        <v>231.125574084126</v>
-      </c>
-      <c r="I13">
-        <v>0.2762290456707231</v>
-      </c>
-      <c r="J13">
-        <v>0.2762290456707231</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.538180806279823</v>
-      </c>
-      <c r="N13">
-        <v>0.538180806279823</v>
-      </c>
-      <c r="O13">
-        <v>0.1837133521309709</v>
-      </c>
-      <c r="P13">
-        <v>0.1837133521309709</v>
-      </c>
-      <c r="Q13">
-        <v>124.3873478124819</v>
-      </c>
-      <c r="R13">
-        <v>124.3873478124819</v>
-      </c>
-      <c r="S13">
-        <v>0.05074696393610759</v>
-      </c>
-      <c r="T13">
-        <v>0.05074696393610759</v>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>104.1027373333333</v>
+      </c>
+      <c r="H21">
+        <v>312.308212</v>
+      </c>
+      <c r="I21">
+        <v>0.1172831022851878</v>
+      </c>
+      <c r="J21">
+        <v>0.1418321540677518</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.5433870000000001</v>
+      </c>
+      <c r="N21">
+        <v>1.086774</v>
+      </c>
+      <c r="O21">
+        <v>0.1106298021231902</v>
+      </c>
+      <c r="P21">
+        <v>0.07657710472994017</v>
+      </c>
+      <c r="Q21">
+        <v>56.56807413134801</v>
+      </c>
+      <c r="R21">
+        <v>339.408444788088</v>
+      </c>
+      <c r="S21">
+        <v>0.01297500639820421</v>
+      </c>
+      <c r="T21">
+        <v>0.01086109571611924</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>122.4736406666667</v>
+      </c>
+      <c r="H22">
+        <v>367.420922</v>
+      </c>
+      <c r="I22">
+        <v>0.1379799311093492</v>
+      </c>
+      <c r="J22">
+        <v>0.166861128892824</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.032709</v>
+      </c>
+      <c r="N22">
+        <v>0.09812700000000001</v>
+      </c>
+      <c r="O22">
+        <v>0.006659324197390494</v>
+      </c>
+      <c r="P22">
+        <v>0.006914300080637592</v>
+      </c>
+      <c r="Q22">
+        <v>4.005990312566</v>
+      </c>
+      <c r="R22">
+        <v>36.053912813094</v>
+      </c>
+      <c r="S22">
+        <v>0.0009188530939907623</v>
+      </c>
+      <c r="T22">
+        <v>0.001153727916958932</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>122.4736406666667</v>
+      </c>
+      <c r="H23">
+        <v>367.420922</v>
+      </c>
+      <c r="I23">
+        <v>0.1379799311093492</v>
+      </c>
+      <c r="J23">
+        <v>0.166861128892824</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>1.571286666666667</v>
+      </c>
+      <c r="N23">
+        <v>4.71386</v>
+      </c>
+      <c r="O23">
+        <v>0.3199030028545778</v>
+      </c>
+      <c r="P23">
+        <v>0.3321516257310865</v>
+      </c>
+      <c r="Q23">
+        <v>192.4411985976578</v>
+      </c>
+      <c r="R23">
+        <v>1731.97078737892</v>
+      </c>
+      <c r="S23">
+        <v>0.04414019429554857</v>
+      </c>
+      <c r="T23">
+        <v>0.05542319523307585</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>122.4736406666667</v>
+      </c>
+      <c r="H24">
+        <v>367.420922</v>
+      </c>
+      <c r="I24">
+        <v>0.1379799311093492</v>
+      </c>
+      <c r="J24">
+        <v>0.166861128892824</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2.432594333333333</v>
+      </c>
+      <c r="N24">
+        <v>7.297783</v>
+      </c>
+      <c r="O24">
+        <v>0.4952592346571789</v>
+      </c>
+      <c r="P24">
+        <v>0.5142219937975853</v>
+      </c>
+      <c r="Q24">
+        <v>297.9286842684362</v>
+      </c>
+      <c r="R24">
+        <v>2681.358158415926</v>
+      </c>
+      <c r="S24">
+        <v>0.06833583507926654</v>
+      </c>
+      <c r="T24">
+        <v>0.08580366238658381</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>122.4736406666667</v>
+      </c>
+      <c r="H25">
+        <v>367.420922</v>
+      </c>
+      <c r="I25">
+        <v>0.1379799311093492</v>
+      </c>
+      <c r="J25">
+        <v>0.166861128892824</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.3317826666666666</v>
+      </c>
+      <c r="N25">
+        <v>0.9953479999999999</v>
+      </c>
+      <c r="O25">
+        <v>0.06754863616766264</v>
+      </c>
+      <c r="P25">
+        <v>0.07013497566075051</v>
+      </c>
+      <c r="Q25">
+        <v>40.63463109676177</v>
+      </c>
+      <c r="R25">
+        <v>365.711679870856</v>
+      </c>
+      <c r="S25">
+        <v>0.009320356164944582</v>
+      </c>
+      <c r="T25">
+        <v>0.01170280121362356</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>122.4736406666667</v>
+      </c>
+      <c r="H26">
+        <v>367.420922</v>
+      </c>
+      <c r="I26">
+        <v>0.1379799311093492</v>
+      </c>
+      <c r="J26">
+        <v>0.166861128892824</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.5433870000000001</v>
+      </c>
+      <c r="N26">
+        <v>1.086774</v>
+      </c>
+      <c r="O26">
+        <v>0.1106298021231902</v>
+      </c>
+      <c r="P26">
+        <v>0.07657710472994017</v>
+      </c>
+      <c r="Q26">
+        <v>66.550584180938</v>
+      </c>
+      <c r="R26">
+        <v>399.303505085628</v>
+      </c>
+      <c r="S26">
+        <v>0.01526469247559871</v>
+      </c>
+      <c r="T26">
+        <v>0.01277774214258183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>260.790245</v>
+      </c>
+      <c r="H27">
+        <v>521.5804899999999</v>
+      </c>
+      <c r="I27">
+        <v>0.2938086909413146</v>
+      </c>
+      <c r="J27">
+        <v>0.236871403229107</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.032709</v>
+      </c>
+      <c r="N27">
+        <v>0.09812700000000001</v>
+      </c>
+      <c r="O27">
+        <v>0.006659324197390494</v>
+      </c>
+      <c r="P27">
+        <v>0.006914300080637592</v>
+      </c>
+      <c r="Q27">
+        <v>8.530188123704999</v>
+      </c>
+      <c r="R27">
+        <v>51.18112874222999</v>
+      </c>
+      <c r="S27">
+        <v>0.001956567324989122</v>
+      </c>
+      <c r="T27">
+        <v>0.001637799962447754</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>260.790245</v>
+      </c>
+      <c r="H28">
+        <v>521.5804899999999</v>
+      </c>
+      <c r="I28">
+        <v>0.2938086909413146</v>
+      </c>
+      <c r="J28">
+        <v>0.236871403229107</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>1.571286666666667</v>
+      </c>
+      <c r="N28">
+        <v>4.71386</v>
+      </c>
+      <c r="O28">
+        <v>0.3199030028545778</v>
+      </c>
+      <c r="P28">
+        <v>0.3321516257310865</v>
+      </c>
+      <c r="Q28">
+        <v>409.7762347652333</v>
+      </c>
+      <c r="R28">
+        <v>2458.6574085914</v>
+      </c>
+      <c r="S28">
+        <v>0.09399028249689914</v>
+      </c>
+      <c r="T28">
+        <v>0.07867722167175162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>260.790245</v>
+      </c>
+      <c r="H29">
+        <v>521.5804899999999</v>
+      </c>
+      <c r="I29">
+        <v>0.2938086909413146</v>
+      </c>
+      <c r="J29">
+        <v>0.236871403229107</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>2.432594333333333</v>
+      </c>
+      <c r="N29">
+        <v>7.297783</v>
+      </c>
+      <c r="O29">
+        <v>0.4952592346571789</v>
+      </c>
+      <c r="P29">
+        <v>0.5142219937975853</v>
+      </c>
+      <c r="Q29">
+        <v>634.3968721756116</v>
+      </c>
+      <c r="R29">
+        <v>3806.381233053669</v>
+      </c>
+      <c r="S29">
+        <v>0.1455114674112231</v>
+      </c>
+      <c r="T29">
+        <v>0.1218044852421032</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>260.790245</v>
+      </c>
+      <c r="H30">
+        <v>521.5804899999999</v>
+      </c>
+      <c r="I30">
+        <v>0.2938086909413146</v>
+      </c>
+      <c r="J30">
+        <v>0.236871403229107</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>0.3317826666666666</v>
+      </c>
+      <c r="N30">
+        <v>0.9953479999999999</v>
+      </c>
+      <c r="O30">
+        <v>0.06754863616766264</v>
+      </c>
+      <c r="P30">
+        <v>0.07013497566075051</v>
+      </c>
+      <c r="Q30">
+        <v>86.5256829267533</v>
+      </c>
+      <c r="R30">
+        <v>519.1540975605199</v>
+      </c>
+      <c r="S30">
+        <v>0.0198463763672921</v>
+      </c>
+      <c r="T30">
+        <v>0.01661297010020124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>260.790245</v>
+      </c>
+      <c r="H31">
+        <v>521.5804899999999</v>
+      </c>
+      <c r="I31">
+        <v>0.2938086909413146</v>
+      </c>
+      <c r="J31">
+        <v>0.236871403229107</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.5433870000000001</v>
+      </c>
+      <c r="N31">
+        <v>1.086774</v>
+      </c>
+      <c r="O31">
+        <v>0.1106298021231902</v>
+      </c>
+      <c r="P31">
+        <v>0.07657710472994017</v>
+      </c>
+      <c r="Q31">
+        <v>141.710028859815</v>
+      </c>
+      <c r="R31">
+        <v>566.84011543926</v>
+      </c>
+      <c r="S31">
+        <v>0.03250399734091118</v>
+      </c>
+      <c r="T31">
+        <v>0.01813892625260322</v>
       </c>
     </row>
   </sheetData>
